--- a/rhizome/tests/_data/eoc_post_campaign.xlsx
+++ b/rhizome/tests/_data/eoc_post_campaign.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="eoc_post_campaign.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -21,6 +21,369 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="228">
   <si>
+    <t>AF001047001000000000</t>
+  </si>
+  <si>
+    <t>Arghandab</t>
+  </si>
+  <si>
+    <t>AF001047002000000000</t>
+  </si>
+  <si>
+    <t>Arghistan</t>
+  </si>
+  <si>
+    <t>Arghestan</t>
+  </si>
+  <si>
+    <t>sfsfsf</t>
+  </si>
+  <si>
+    <t>AF001047003000000000</t>
+  </si>
+  <si>
+    <t>Daman/shega</t>
+  </si>
+  <si>
+    <t>Daman</t>
+  </si>
+  <si>
+    <t>AF001047004000000000</t>
+  </si>
+  <si>
+    <t>Ghorak</t>
+  </si>
+  <si>
+    <t>AF001047006000000000</t>
+  </si>
+  <si>
+    <t>Khakriz</t>
+  </si>
+  <si>
+    <t>Khakrez</t>
+  </si>
+  <si>
+    <t>AF001047010000000000</t>
+  </si>
+  <si>
+    <t>Nish</t>
+  </si>
+  <si>
+    <t>Nesh</t>
+  </si>
+  <si>
+    <t>AF001047012000000000</t>
+  </si>
+  <si>
+    <t>Reg K</t>
+  </si>
+  <si>
+    <t>AF001047014000000000</t>
+  </si>
+  <si>
+    <t>AF001056001000000000</t>
+  </si>
+  <si>
+    <t>Bargematal</t>
+  </si>
+  <si>
+    <t>Barg-e- Matal</t>
+  </si>
+  <si>
+    <t>AF001056003000000000</t>
+  </si>
+  <si>
+    <t>Kamdish</t>
+  </si>
+  <si>
+    <t>Kamdesh</t>
+  </si>
+  <si>
+    <t>Paktya</t>
+  </si>
+  <si>
+    <t>AF001058003000000000</t>
+  </si>
+  <si>
+    <t>Chamkani</t>
+  </si>
+  <si>
+    <t>AF001058010000000000</t>
+  </si>
+  <si>
+    <t>Jadran</t>
+  </si>
+  <si>
+    <t>Zadran</t>
+  </si>
+  <si>
+    <t>AF001064001000000000</t>
+  </si>
+  <si>
+    <t>Chora</t>
+  </si>
+  <si>
+    <t>AF001064004000000000</t>
+  </si>
+  <si>
+    <t>Shahidihasas</t>
+  </si>
+  <si>
+    <t>Shahid-e-Hassas</t>
+  </si>
+  <si>
+    <t>AF001066001000000000</t>
+  </si>
+  <si>
+    <t>Arghandab Z</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>PCODE</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>DCODE</t>
+  </si>
+  <si>
+    <t>geocode</t>
+  </si>
+  <si>
+    <t>District.Name</t>
+  </si>
+  <si>
+    <t>Alternative.Spell</t>
+  </si>
+  <si>
+    <t>LPD.group</t>
+  </si>
+  <si>
+    <t>Percent missed due to not available</t>
+  </si>
+  <si>
+    <t>Percent missed due to refusal</t>
+  </si>
+  <si>
+    <t>Percent missed due to not visited</t>
+  </si>
+  <si>
+    <t>Percent missed due to other reasons</t>
+  </si>
+  <si>
+    <t>Percent missed children_PCA</t>
+  </si>
+  <si>
+    <t>Percent missed children_OfH FM survey</t>
+  </si>
+  <si>
+    <t>LQAS</t>
+  </si>
+  <si>
+    <t>2016 March NID OPV</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>AF001039003000000000</t>
+  </si>
+  <si>
+    <t>Bala Bulook</t>
+  </si>
+  <si>
+    <t>Balabuluk</t>
+  </si>
+  <si>
+    <t>sasa</t>
+  </si>
+  <si>
+    <t>AF001039006000000000</t>
+  </si>
+  <si>
+    <t>Khaki Safid</t>
+  </si>
+  <si>
+    <t>Khak-e-Safed</t>
+  </si>
+  <si>
+    <t>Hilmand</t>
+  </si>
+  <si>
+    <t>AF001043005000000000</t>
+  </si>
+  <si>
+    <t>Bust</t>
+  </si>
+  <si>
+    <t>Lashkargah</t>
+  </si>
+  <si>
+    <t>AF001043007000000000</t>
+  </si>
+  <si>
+    <t>Nadali/Mirja</t>
+  </si>
+  <si>
+    <t>Nad-e-Ali</t>
+  </si>
+  <si>
+    <t>AF001043008000000000</t>
+  </si>
+  <si>
+    <t>Nahrisaraj</t>
+  </si>
+  <si>
+    <t>Nahr-e-Saraj</t>
+  </si>
+  <si>
+    <t>AF001043011000000000</t>
+  </si>
+  <si>
+    <t>Reg H</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>AF001043012000000000</t>
+  </si>
+  <si>
+    <t>Sangin</t>
+  </si>
+  <si>
+    <t>Kandahar</t>
+  </si>
+  <si>
+    <t>AF001047005000000000</t>
+  </si>
+  <si>
+    <t>Kandahar/dand</t>
+  </si>
+  <si>
+    <t>asf;lkasf;</t>
+  </si>
+  <si>
+    <t>AF001047008000000000</t>
+  </si>
+  <si>
+    <t>Maywand</t>
+  </si>
+  <si>
+    <t>AF001047013000000000</t>
+  </si>
+  <si>
+    <t>Shawalikot</t>
+  </si>
+  <si>
+    <t>Shahwalikot</t>
+  </si>
+  <si>
+    <t>AF001047015000000000</t>
+  </si>
+  <si>
+    <t>Spinboldak</t>
+  </si>
+  <si>
+    <t>AF001047016000000000</t>
+  </si>
+  <si>
+    <t>Zahrai</t>
+  </si>
+  <si>
+    <t>Zheray</t>
+  </si>
+  <si>
+    <t>Nangarhar</t>
+  </si>
+  <si>
+    <t>AF001054001000000000</t>
+  </si>
+  <si>
+    <t>Achin</t>
+  </si>
+  <si>
+    <t>AF001054002000000000</t>
+  </si>
+  <si>
+    <t>Batikot</t>
+  </si>
+  <si>
+    <t>AF001054015000000000</t>
+  </si>
+  <si>
+    <t>Lalpora</t>
+  </si>
+  <si>
+    <t>Lalpur</t>
+  </si>
+  <si>
+    <t>#NA</t>
+  </si>
+  <si>
+    <t>AF001054016000000000</t>
+  </si>
+  <si>
+    <t>Momandara</t>
+  </si>
+  <si>
+    <t>Muhmand Dara</t>
+  </si>
+  <si>
+    <t>Urozgan</t>
+  </si>
+  <si>
+    <t>AF001064002000000000</t>
+  </si>
+  <si>
+    <t>Dehrawud</t>
+  </si>
+  <si>
+    <t>asafafa</t>
+  </si>
+  <si>
+    <t>AF001039005000000000</t>
+  </si>
+  <si>
+    <t>Gulistan</t>
+  </si>
+  <si>
+    <t>Gulestan</t>
+  </si>
+  <si>
+    <t>AF001043004000000000</t>
+  </si>
+  <si>
+    <t>Kajaki</t>
+  </si>
+  <si>
+    <t>AF001043006000000000</t>
+  </si>
+  <si>
+    <t>MusaQala</t>
+  </si>
+  <si>
+    <t>Musaqalah</t>
+  </si>
+  <si>
+    <t>AF001043009000000000</t>
+  </si>
+  <si>
+    <t>Nawa</t>
+  </si>
+  <si>
+    <t>Nawa-e-Barakzaiy</t>
+  </si>
+  <si>
     <t>AF001066002000000000</t>
   </si>
   <si>
@@ -340,375 +703,18 @@
   </si>
   <si>
     <t>Nuristan</t>
-  </si>
-  <si>
-    <t>AF001056001000000000</t>
-  </si>
-  <si>
-    <t>Bargematal</t>
-  </si>
-  <si>
-    <t>Barg-e- Matal</t>
-  </si>
-  <si>
-    <t>AF001056003000000000</t>
-  </si>
-  <si>
-    <t>Kamdish</t>
-  </si>
-  <si>
-    <t>Kamdesh</t>
-  </si>
-  <si>
-    <t>Paktya</t>
-  </si>
-  <si>
-    <t>AF001058003000000000</t>
-  </si>
-  <si>
-    <t>Chamkani</t>
-  </si>
-  <si>
-    <t>AF001058010000000000</t>
-  </si>
-  <si>
-    <t>Jadran</t>
-  </si>
-  <si>
-    <t>Zadran</t>
-  </si>
-  <si>
-    <t>AF001064001000000000</t>
-  </si>
-  <si>
-    <t>Chora</t>
-  </si>
-  <si>
-    <t>AF001064004000000000</t>
-  </si>
-  <si>
-    <t>Shahidihasas</t>
-  </si>
-  <si>
-    <t>Shahid-e-Hassas</t>
-  </si>
-  <si>
-    <t>AF001066001000000000</t>
-  </si>
-  <si>
-    <t>Arghandab Z</t>
-  </si>
-  <si>
-    <t>campaign</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>PCODE</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>DCODE</t>
-  </si>
-  <si>
-    <t>geocode</t>
-  </si>
-  <si>
-    <t>District.Name</t>
-  </si>
-  <si>
-    <t>Alternative.Spell</t>
-  </si>
-  <si>
-    <t>LPD.group</t>
-  </si>
-  <si>
-    <t>Percent missed due to not available</t>
-  </si>
-  <si>
-    <t>Percent missed due to refusal</t>
-  </si>
-  <si>
-    <t>Percent missed due to not visited</t>
-  </si>
-  <si>
-    <t>Percent missed due to other reasons</t>
-  </si>
-  <si>
-    <t>Percent missed children_PCA</t>
-  </si>
-  <si>
-    <t>Percent missed children_OfH FM survey</t>
-  </si>
-  <si>
-    <t>LQAS</t>
-  </si>
-  <si>
-    <t>2016 March NID OPV</t>
-  </si>
-  <si>
-    <t>Farah</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>AF001039003000000000</t>
-  </si>
-  <si>
-    <t>Bala Bulook</t>
-  </si>
-  <si>
-    <t>Balabuluk</t>
-  </si>
-  <si>
-    <t>sasa</t>
-  </si>
-  <si>
-    <t>AF001039006000000000</t>
-  </si>
-  <si>
-    <t>Khaki Safid</t>
-  </si>
-  <si>
-    <t>Khak-e-Safed</t>
-  </si>
-  <si>
-    <t>Hilmand</t>
-  </si>
-  <si>
-    <t>AF001043005000000000</t>
-  </si>
-  <si>
-    <t>Bust</t>
-  </si>
-  <si>
-    <t>Lashkargah</t>
-  </si>
-  <si>
-    <t>AF001043007000000000</t>
-  </si>
-  <si>
-    <t>Nadali/Mirja</t>
-  </si>
-  <si>
-    <t>Nad-e-Ali</t>
-  </si>
-  <si>
-    <t>AF001043008000000000</t>
-  </si>
-  <si>
-    <t>Nahrisaraj</t>
-  </si>
-  <si>
-    <t>Nahr-e-Saraj</t>
-  </si>
-  <si>
-    <t>AF001043011000000000</t>
-  </si>
-  <si>
-    <t>Reg H</t>
-  </si>
-  <si>
-    <t>Reg</t>
-  </si>
-  <si>
-    <t>AF001043012000000000</t>
-  </si>
-  <si>
-    <t>Sangin</t>
-  </si>
-  <si>
-    <t>Kandahar</t>
-  </si>
-  <si>
-    <t>AF001047005000000000</t>
-  </si>
-  <si>
-    <t>Kandahar/dand</t>
-  </si>
-  <si>
-    <t>asf;lkasf;</t>
-  </si>
-  <si>
-    <t>AF001047008000000000</t>
-  </si>
-  <si>
-    <t>Maywand</t>
-  </si>
-  <si>
-    <t>AF001047013000000000</t>
-  </si>
-  <si>
-    <t>Shawalikot</t>
-  </si>
-  <si>
-    <t>Shahwalikot</t>
-  </si>
-  <si>
-    <t>AF001047015000000000</t>
-  </si>
-  <si>
-    <t>Spinboldak</t>
-  </si>
-  <si>
-    <t>AF001047016000000000</t>
-  </si>
-  <si>
-    <t>Zahrai</t>
-  </si>
-  <si>
-    <t>Zheray</t>
-  </si>
-  <si>
-    <t>Nangarhar</t>
-  </si>
-  <si>
-    <t>AF001054001000000000</t>
-  </si>
-  <si>
-    <t>Achin</t>
-  </si>
-  <si>
-    <t>AF001054002000000000</t>
-  </si>
-  <si>
-    <t>Batikot</t>
-  </si>
-  <si>
-    <t>AF001054015000000000</t>
-  </si>
-  <si>
-    <t>Lalpora</t>
-  </si>
-  <si>
-    <t>Lalpur</t>
-  </si>
-  <si>
-    <t>#NA</t>
-  </si>
-  <si>
-    <t>AF001054016000000000</t>
-  </si>
-  <si>
-    <t>Momandara</t>
-  </si>
-  <si>
-    <t>Muhmand Dara</t>
-  </si>
-  <si>
-    <t>Urozgan</t>
-  </si>
-  <si>
-    <t>AF001064002000000000</t>
-  </si>
-  <si>
-    <t>Dehrawud</t>
-  </si>
-  <si>
-    <t>asafafa</t>
-  </si>
-  <si>
-    <t>AF001039005000000000</t>
-  </si>
-  <si>
-    <t>Gulistan</t>
-  </si>
-  <si>
-    <t>Gulestan</t>
-  </si>
-  <si>
-    <t>AF001043004000000000</t>
-  </si>
-  <si>
-    <t>Kajaki</t>
-  </si>
-  <si>
-    <t>AF001043006000000000</t>
-  </si>
-  <si>
-    <t>MusaQala</t>
-  </si>
-  <si>
-    <t>Musaqalah</t>
-  </si>
-  <si>
-    <t>AF001043009000000000</t>
-  </si>
-  <si>
-    <t>Nawa</t>
-  </si>
-  <si>
-    <t>Nawa-e-Barakzaiy</t>
-  </si>
-  <si>
-    <t>AF001047001000000000</t>
-  </si>
-  <si>
-    <t>Arghandab</t>
-  </si>
-  <si>
-    <t>AF001047002000000000</t>
-  </si>
-  <si>
-    <t>Arghistan</t>
-  </si>
-  <si>
-    <t>Arghestan</t>
-  </si>
-  <si>
-    <t>sfsfsf</t>
-  </si>
-  <si>
-    <t>AF001047003000000000</t>
-  </si>
-  <si>
-    <t>Daman/shega</t>
-  </si>
-  <si>
-    <t>Daman</t>
-  </si>
-  <si>
-    <t>AF001047004000000000</t>
-  </si>
-  <si>
-    <t>Ghorak</t>
-  </si>
-  <si>
-    <t>AF001047006000000000</t>
-  </si>
-  <si>
-    <t>Khakriz</t>
-  </si>
-  <si>
-    <t>Khakrez</t>
-  </si>
-  <si>
-    <t>AF001047010000000000</t>
-  </si>
-  <si>
-    <t>Nish</t>
-  </si>
-  <si>
-    <t>Nesh</t>
-  </si>
-  <si>
-    <t>AF001047012000000000</t>
-  </si>
-  <si>
-    <t>Reg K</t>
-  </si>
-  <si>
-    <t>AF001047014000000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -719,12 +725,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -739,8 +751,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,84 +1086,91 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>3103</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1168,7 +1188,7 @@
         <v>8.2670906000000002E-2</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1176,28 +1196,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>3104</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1226,28 +1246,28 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>3201</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1276,28 +1296,28 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>3203</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1326,28 +1346,28 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>3202</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1373,28 +1393,28 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>3212</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1423,28 +1443,28 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>3205</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1473,34 +1493,34 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>3301</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <v>8.9999999999999993E-3</v>
@@ -1520,28 +1540,28 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>3308</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1570,28 +1590,28 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>3306</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1620,28 +1640,28 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>3311</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1670,28 +1690,28 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>3303</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1720,28 +1740,28 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>617</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1770,28 +1790,28 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>615</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1817,28 +1837,28 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>620</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" t="s">
-        <v>188</v>
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1853,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>8.7818697000000001E-2</v>
@@ -1867,28 +1887,28 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>619</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1917,28 +1937,28 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C18">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>2304</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1947,7 +1967,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K18" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1967,28 +1987,28 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>3109</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2017,28 +2037,28 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>3210</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2067,28 +2087,28 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>3206</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -2117,28 +2137,28 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>3204</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2167,28 +2187,28 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>3302</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2217,28 +2237,28 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>3312</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -2250,7 +2270,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>2.8000000000000001E-2</v>
@@ -2267,28 +2287,28 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>3305</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>216</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -2317,28 +2337,28 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>3315</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2367,28 +2387,28 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>3307</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2414,28 +2434,28 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>3314</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2464,28 +2484,28 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E29">
         <v>3309</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2514,28 +2534,28 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>3310</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2564,28 +2584,28 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>1313</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2614,28 +2634,28 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C32">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>1305</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -2664,28 +2684,28 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <v>1307</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2714,28 +2734,28 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C34">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E34">
         <v>1302</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2764,28 +2784,28 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -2814,28 +2834,28 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>601</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -2864,28 +2884,28 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <v>611</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -2914,28 +2934,28 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C38">
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E38">
         <v>3401</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -2964,28 +2984,28 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C39">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <v>2515</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3014,28 +3034,28 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C40">
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E40">
         <v>2301</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -3064,28 +3084,28 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C41">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E41">
         <v>2401</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -3114,28 +3134,28 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>2205</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -3164,28 +3184,28 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="C43">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E43">
         <v>1111</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -3214,28 +3234,28 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <v>3211</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -3264,28 +3284,28 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E45">
         <v>3209</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -3314,28 +3334,28 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E46">
         <v>3207</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -3364,28 +3384,28 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E47">
         <v>3208</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="I47">
         <v>3</v>
@@ -3414,28 +3434,28 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="C48">
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E48">
         <v>2608</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -3464,28 +3484,28 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="C49">
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E49">
         <v>2605</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -3514,28 +3534,28 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="C50">
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E50">
         <v>2603</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -3564,28 +3584,28 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C51">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E51">
         <v>1301</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -3614,28 +3634,28 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C52">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E52">
         <v>1311</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -3664,28 +3684,28 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C53">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <v>1310</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -3714,28 +3734,28 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C54">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E54">
         <v>1312</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="H54" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -3764,28 +3784,28 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C55">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E55">
         <v>1309</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -3814,28 +3834,28 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C56">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <v>1303</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -3864,28 +3884,28 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C57">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E57">
         <v>1315</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G57" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -3914,28 +3934,28 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E58">
         <v>704</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="H58" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -3964,28 +3984,28 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E59">
         <v>613</v>
       </c>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="H59" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -4014,28 +4034,28 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E60">
         <v>614</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -4064,28 +4084,28 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E61">
         <v>603</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="G61" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="H61" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -4114,28 +4134,28 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C62">
         <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E62">
         <v>3405</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -4164,28 +4184,28 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="C63">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E63">
         <v>1408</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -4214,28 +4234,28 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="C64">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E64">
         <v>1407</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -4264,28 +4284,28 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E65">
         <v>1210</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -4314,28 +4334,28 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E66">
         <v>1206</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -4364,28 +4384,28 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C67">
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E67">
         <v>2302</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -4414,28 +4434,28 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C68">
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E68">
         <v>2303</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -4464,28 +4484,28 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C69">
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E69">
         <v>2402</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -4514,28 +4534,28 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C70">
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E70">
         <v>2409</v>
       </c>
       <c r="F70" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="G70" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="H70" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -4564,28 +4584,28 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C71">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E71">
         <v>2408</v>
       </c>
       <c r="F71" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G71" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="H71" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -4614,28 +4634,28 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C72">
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E72">
         <v>2404</v>
       </c>
       <c r="F72" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="H72" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -4664,28 +4684,28 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C73">
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E73">
         <v>2403</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="H73" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -4714,28 +4734,28 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C74">
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E74">
         <v>2411</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -4764,28 +4784,28 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C75">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E75">
         <v>2406</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -4814,28 +4834,28 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C76">
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E76">
         <v>2405</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="H76" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -4865,6 +4885,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
